--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Work/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4C3CC-17B8-FC4D-8694-6316C197E4A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFEAD2D-30BE-544B-838A-8C5A2D037EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="460" windowWidth="31740" windowHeight="28340" xr2:uid="{7557B49F-574E-49C3-9286-C0E669E3087F}"/>
+    <workbookView xWindow="-40960" yWindow="3780" windowWidth="40960" windowHeight="22580" xr2:uid="{7557B49F-574E-49C3-9286-C0E669E3087F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,14 +100,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,17 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -539,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDCE940-9FD6-4D2C-8161-79B2BA1EF2D7}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,182 +544,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>43701</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <f>B1+D4+1</f>
         <v>43709</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <f>B4+D5</f>
         <v>43723</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <f t="shared" ref="B6:B11" si="0">B5+D6</f>
         <v>43737</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>14</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>43751</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>43765</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>43779</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>43793</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>14</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>43807</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>14</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -742,15 +730,9 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Work/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFEAD2D-30BE-544B-838A-8C5A2D037EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C2113-DC20-EB4B-9B6D-7FBBA141514F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40960" yWindow="3780" windowWidth="40960" windowHeight="22580" xr2:uid="{7557B49F-574E-49C3-9286-C0E669E3087F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -81,7 +81,16 @@
     <t>Thankgiving Break</t>
   </si>
   <si>
-    <t>Begins:</t>
+    <t>Class Begins:</t>
+  </si>
+  <si>
+    <t>Object-Oriented Programming</t>
+  </si>
+  <si>
+    <t>Final:</t>
+  </si>
+  <si>
+    <t>from 4-6pm CST</t>
   </si>
 </sst>
 </file>
@@ -527,15 +536,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDCE940-9FD6-4D2C-8161-79B2BA1EF2D7}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="20.5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
@@ -543,75 +552,59 @@
     <col min="6" max="6" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B2" s="5">
         <v>43701</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <f>B1+D4+1</f>
+      <c r="B5" s="9">
+        <f>B2+D5+1</f>
         <v>43709</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="11">
         <v>7</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <f>B4+D5</f>
-        <v>43723</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" ref="B6:B11" si="0">B5+D6</f>
-        <v>43737</v>
+        <f>B5+D6</f>
+        <v>43723</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -622,117 +615,146 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <f t="shared" ref="B7:B12" si="0">B6+D7</f>
+        <v>43737</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>43751</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="6">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>43765</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>14</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>43779</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D10" s="6">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>43793</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>14</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>43807</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>14</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43808</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Work/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C2113-DC20-EB4B-9B6D-7FBBA141514F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65AE169-94C7-2B44-A473-FF38CB109092}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40960" yWindow="3780" windowWidth="40960" windowHeight="22580" xr2:uid="{7557B49F-574E-49C3-9286-C0E669E3087F}"/>
+    <workbookView xWindow="-38400" yWindow="14860" windowWidth="38400" windowHeight="21140" xr2:uid="{7557B49F-574E-49C3-9286-C0E669E3087F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>Fall Break</t>
   </si>
   <si>
-    <t>Thankgiving Break</t>
-  </si>
-  <si>
     <t>Class Begins:</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>from 4-6pm CST</t>
+  </si>
+  <si>
+    <t>Thankgiving Break*</t>
   </si>
 </sst>
 </file>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDCE940-9FD6-4D2C-8161-79B2BA1EF2D7}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="151" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -554,15 +554,15 @@
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5">
-        <v>43701</v>
+        <v>43702</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -584,19 +584,21 @@
         <v>0</v>
       </c>
       <c r="B5" s="9">
-        <f>B2+D5+1</f>
-        <v>43709</v>
+        <f>B2+D5</f>
+        <v>43716</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="11">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -604,7 +606,7 @@
       </c>
       <c r="B6" s="5">
         <f>B5+D6</f>
-        <v>43723</v>
+        <v>43730</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -615,9 +617,7 @@
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -625,7 +625,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" ref="B7:B12" si="0">B6+D7</f>
-        <v>43737</v>
+        <v>43744</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -636,7 +636,6 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -644,7 +643,7 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>43751</v>
+        <v>43758</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -665,7 +664,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>43765</v>
+        <v>43772</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>8</v>
@@ -684,7 +683,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>8</v>
@@ -703,7 +702,7 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>43793</v>
+        <v>43800</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>8</v>
@@ -714,7 +713,9 @@
       <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -722,7 +723,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>43807</v>
+        <v>43814</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>8</v>
@@ -732,9 +733,6 @@
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
@@ -745,16 +743,17 @@
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5">
         <v>43808</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/calendar.xlsx
+++ b/calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Work/cpsc-24500/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\cpsc-24500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65AE169-94C7-2B44-A473-FF38CB109092}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE439CA-9C5F-4D51-A7B6-504159AEE964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="14860" windowWidth="38400" windowHeight="21140" xr2:uid="{7557B49F-574E-49C3-9286-C0E669E3087F}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="28800" windowHeight="15910" xr2:uid="{7557B49F-574E-49C3-9286-C0E669E3087F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,22 +542,22 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="20.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="43.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="38.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -565,8 +565,8 @@
         <v>43702</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -600,7 +600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -637,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -658,7 +658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -717,7 +717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -735,13 +735,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -752,8 +752,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
